--- a/testdata/invalid-testdata/excel2json/new_lists_duplicate_ids/list_duplicate_2.xlsx
+++ b/testdata/invalid-testdata/excel2json/new_lists_duplicate_ids/list_duplicate_2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noraammann/Documents/Cloned_GitHub/dsp-tools/testdata/invalid-testdata/excel2json/new_lists_duplicates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noraammann/Documents/Cloned_GitHub/dsp-tools/testdata/invalid-testdata/excel2json/new_lists_duplicate_ids/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B545B7-AD42-8F4E-9AD2-A8BA2A189058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D34AF29-0552-8F4F-9B49-8A8335CE504C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" xr2:uid="{A320CADF-BCB7-D643-91E4-BA6B29A80A1C}"/>
   </bookViews>
@@ -58,9 +58,6 @@
     <t>List 4</t>
   </si>
   <si>
-    <t>duplicateID</t>
-  </si>
-  <si>
     <t>List 5</t>
   </si>
   <si>
@@ -68,6 +65,9 @@
   </si>
   <si>
     <t>List 6</t>
+  </si>
+  <si>
+    <t>duplicate_list_id</t>
   </si>
 </sst>
 </file>
@@ -448,10 +448,13 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
@@ -466,7 +469,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
@@ -557,15 +560,15 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -600,15 +603,15 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
